--- a/PTBR/Lang/PTBR/Game/Game.xlsx
+++ b/PTBR/Lang/PTBR/Game/Game.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ysi\Documents\GitHub\elin-portugues-brasileiro\PTBR\Lang\PTBR\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93B0FD71-6A69-497D-8B03-B63E2A7BAC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C96E75-50EB-4EA1-B5AE-3F0F5D993AE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2070" yWindow="990" windowWidth="15450" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12698,7 +12698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
